--- a/biology/Zoologie/Ichthyophis_glutinosus/Ichthyophis_glutinosus.xlsx
+++ b/biology/Zoologie/Ichthyophis_glutinosus/Ichthyophis_glutinosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ichthyophis glutinosus est une espèce de gymnophiones de la famille des Ichthyophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ichthyophis glutinosus est une espèce de gymnophiones de la famille des Ichthyophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka. Elle se rencontre de 50 à 1 355 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sri Lanka. Elle se rencontre de 50 à 1 355 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les gymnophiones, elle est apode. Elle mesure jusqu'à 45 cm. Elle est brune avec des reflets bleus. Elle vit sous terre, principalement dans les sols boueux et les marais.
 </t>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
